--- a/results/results_analysis.xlsx
+++ b/results/results_analysis.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_analysis.xlsx
+++ b/results/results_analysis.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="81">
   <si>
     <t>Num</t>
   </si>
@@ -156,6 +158,108 @@
   <si>
     <t>EM</t>
   </si>
+  <si>
+    <t>%OptW</t>
+  </si>
+  <si>
+    <t>|GS(ms)</t>
+  </si>
+  <si>
+    <t>|311.29</t>
+  </si>
+  <si>
+    <t>|245.8</t>
+  </si>
+  <si>
+    <t>|257.95</t>
+  </si>
+  <si>
+    <t>|377.28</t>
+  </si>
+  <si>
+    <t>|252.91</t>
+  </si>
+  <si>
+    <t>|244.28</t>
+  </si>
+  <si>
+    <t>|247.73</t>
+  </si>
+  <si>
+    <t>|180.49</t>
+  </si>
+  <si>
+    <t>|247.1</t>
+  </si>
+  <si>
+    <t>|241.24</t>
+  </si>
+  <si>
+    <t>|259.56</t>
+  </si>
+  <si>
+    <t>|250.39</t>
+  </si>
+  <si>
+    <t>|242.11</t>
+  </si>
+  <si>
+    <t>|311.54</t>
+  </si>
+  <si>
+    <t>|240.24</t>
+  </si>
+  <si>
+    <t>|234.34</t>
+  </si>
+  <si>
+    <t>|240.25</t>
+  </si>
+  <si>
+    <t>|237.0</t>
+  </si>
+  <si>
+    <t>|195.71</t>
+  </si>
+  <si>
+    <t>|244.66</t>
+  </si>
+  <si>
+    <t>Total Feasible</t>
+  </si>
+  <si>
+    <t>M-Pes</t>
+  </si>
+  <si>
+    <t>M-Equ</t>
+  </si>
+  <si>
+    <t>%OpM</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Man Optimal</t>
+  </si>
+  <si>
+    <t>Fair Solution</t>
+  </si>
+  <si>
+    <t>Woman Optimal</t>
+  </si>
+  <si>
+    <t>M-Fair</t>
+  </si>
+  <si>
+    <t>W-Fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men </t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
 </sst>
 </file>
 
@@ -207,6 +311,2374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fairness of Matchings</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$H$15:$M$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Man Optimal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fair Solution</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Woman Optimal</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16940869162225358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83059130837774642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4972282687563489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50277173124365115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82182292934433843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17817707065566152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$H$15:$M$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Man Optimal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fair Solution</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Woman Optimal</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0039319391536723E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95996068060846329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48483884971140639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51516115028859355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95174201423507065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8257985764929442E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$H$15:$M$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Man Optimal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fair Solution</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Woman Optimal</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3461819981780175E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96653818001821978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4952016638404898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5047983361595102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97892586075947174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1074139240528228E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="448017744"/>
+        <c:axId val="442188456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448017744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442188456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442188456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Total Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448017744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4576435348770469"/>
+          <c:y val="0.9419597557752255"/>
+          <c:w val="0.15007201655609734"/>
+          <c:h val="5.434822025643686E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matching</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fairness Relative to Worst Case</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$R$15:$W$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Men </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Women</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$R$17:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46129405745981311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21653787124047497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20421517157422203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43934667376803871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$R$15:$W$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Men </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Women</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$R$18:$W$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22307564613825467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5803294420133693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.617282800202243E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21584121511438289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$R$15:$W$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M-Pes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>M-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>M-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>W-Opt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>W-Fair</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>W-Pes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Men </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Women</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$R$19:$W$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1538030242512716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8076210707885463E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6545572423637351E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19332710428034008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="448988360"/>
+        <c:axId val="448988752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448988360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448988752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448988752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Pessimal Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448988360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,4 +5825,3737 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:W74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:P74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6910</v>
+      </c>
+      <c r="D6">
+        <v>124685</v>
+      </c>
+      <c r="E6">
+        <v>131595</v>
+      </c>
+      <c r="G6">
+        <v>182550</v>
+      </c>
+      <c r="H6">
+        <v>4718</v>
+      </c>
+      <c r="I6">
+        <v>187268</v>
+      </c>
+      <c r="K6">
+        <v>28456</v>
+      </c>
+      <c r="L6">
+        <v>32171</v>
+      </c>
+      <c r="M6">
+        <v>60627</v>
+      </c>
+      <c r="O6">
+        <v>0.122</v>
+      </c>
+      <c r="P6">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6">
+        <v>4939.46</v>
+      </c>
+      <c r="T6">
+        <v>1185.54</v>
+      </c>
+      <c r="U6">
+        <v>170727.96</v>
+      </c>
+      <c r="W6">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6235</v>
+      </c>
+      <c r="D7">
+        <v>135636</v>
+      </c>
+      <c r="E7">
+        <v>141871</v>
+      </c>
+      <c r="G7">
+        <v>142565</v>
+      </c>
+      <c r="H7">
+        <v>5846</v>
+      </c>
+      <c r="I7">
+        <v>148411</v>
+      </c>
+      <c r="K7">
+        <v>32122</v>
+      </c>
+      <c r="L7">
+        <v>28694</v>
+      </c>
+      <c r="M7">
+        <v>60816</v>
+      </c>
+      <c r="O7">
+        <v>0.189</v>
+      </c>
+      <c r="P7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>4091.68</v>
+      </c>
+      <c r="T7">
+        <v>945.03</v>
+      </c>
+      <c r="U7">
+        <v>40385.53</v>
+      </c>
+      <c r="W7">
+        <v>39320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5669</v>
+      </c>
+      <c r="D8">
+        <v>150670</v>
+      </c>
+      <c r="E8">
+        <v>156339</v>
+      </c>
+      <c r="G8">
+        <v>101622</v>
+      </c>
+      <c r="H8">
+        <v>8743</v>
+      </c>
+      <c r="I8">
+        <v>110365</v>
+      </c>
+      <c r="K8">
+        <v>28878</v>
+      </c>
+      <c r="L8">
+        <v>31469</v>
+      </c>
+      <c r="M8">
+        <v>60347</v>
+      </c>
+      <c r="O8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8">
+        <v>3666.44</v>
+      </c>
+      <c r="T8">
+        <v>697.99</v>
+      </c>
+      <c r="U8">
+        <v>21761.56</v>
+      </c>
+      <c r="W8">
+        <v>31272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4528</v>
+      </c>
+      <c r="D9">
+        <v>177204</v>
+      </c>
+      <c r="E9">
+        <v>181732</v>
+      </c>
+      <c r="G9">
+        <v>127125</v>
+      </c>
+      <c r="H9">
+        <v>6074</v>
+      </c>
+      <c r="I9">
+        <v>133199</v>
+      </c>
+      <c r="K9">
+        <v>28371</v>
+      </c>
+      <c r="L9">
+        <v>32363</v>
+      </c>
+      <c r="M9">
+        <v>60734</v>
+      </c>
+      <c r="O9">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.153</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9">
+        <v>5075.45</v>
+      </c>
+      <c r="T9">
+        <v>846.77</v>
+      </c>
+      <c r="U9">
+        <v>102127.86</v>
+      </c>
+      <c r="W9">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>7662</v>
+      </c>
+      <c r="D10">
+        <v>109508</v>
+      </c>
+      <c r="E10">
+        <v>117170</v>
+      </c>
+      <c r="G10">
+        <v>139134</v>
+      </c>
+      <c r="H10">
+        <v>6228</v>
+      </c>
+      <c r="I10">
+        <v>145362</v>
+      </c>
+      <c r="K10">
+        <v>27447</v>
+      </c>
+      <c r="L10">
+        <v>34430</v>
+      </c>
+      <c r="M10">
+        <v>61877</v>
+      </c>
+      <c r="O10">
+        <v>0.15</v>
+      </c>
+      <c r="P10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10">
+        <v>3471.22</v>
+      </c>
+      <c r="T10">
+        <v>1047.01</v>
+      </c>
+      <c r="U10">
+        <v>117373.01</v>
+      </c>
+      <c r="W10">
+        <v>31340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5242</v>
+      </c>
+      <c r="D11">
+        <v>165138</v>
+      </c>
+      <c r="E11">
+        <v>170380</v>
+      </c>
+      <c r="G11">
+        <v>125214</v>
+      </c>
+      <c r="H11">
+        <v>7052</v>
+      </c>
+      <c r="I11">
+        <v>132266</v>
+      </c>
+      <c r="K11">
+        <v>29134</v>
+      </c>
+      <c r="L11">
+        <v>30959</v>
+      </c>
+      <c r="M11">
+        <v>60093</v>
+      </c>
+      <c r="O11">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.151</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11">
+        <v>4291.9399999999996</v>
+      </c>
+      <c r="T11">
+        <v>886.96</v>
+      </c>
+      <c r="U11">
+        <v>59048.92</v>
+      </c>
+      <c r="W11">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5366</v>
+      </c>
+      <c r="D12">
+        <v>153556</v>
+      </c>
+      <c r="E12">
+        <v>158922</v>
+      </c>
+      <c r="G12">
+        <v>103271</v>
+      </c>
+      <c r="H12">
+        <v>8147</v>
+      </c>
+      <c r="I12">
+        <v>111418</v>
+      </c>
+      <c r="K12">
+        <v>29863</v>
+      </c>
+      <c r="L12">
+        <v>31363</v>
+      </c>
+      <c r="M12">
+        <v>61226</v>
+      </c>
+      <c r="O12">
+        <v>0.25</v>
+      </c>
+      <c r="P12">
+        <v>0.159</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12">
+        <v>3631.33</v>
+      </c>
+      <c r="T12">
+        <v>691.11</v>
+      </c>
+      <c r="U12">
+        <v>166883.38</v>
+      </c>
+      <c r="W12">
+        <v>32506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5933</v>
+      </c>
+      <c r="D13">
+        <v>141954</v>
+      </c>
+      <c r="E13">
+        <v>147887</v>
+      </c>
+      <c r="G13">
+        <v>142620</v>
+      </c>
+      <c r="H13">
+        <v>5932</v>
+      </c>
+      <c r="I13">
+        <v>148552</v>
+      </c>
+      <c r="K13">
+        <v>28072</v>
+      </c>
+      <c r="L13">
+        <v>32071</v>
+      </c>
+      <c r="M13">
+        <v>60143</v>
+      </c>
+      <c r="O13">
+        <v>0.161</v>
+      </c>
+      <c r="P13">
+        <v>0.192</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13">
+        <v>4595.17</v>
+      </c>
+      <c r="T13">
+        <v>1168.3499999999999</v>
+      </c>
+      <c r="U13">
+        <v>112694.99</v>
+      </c>
+      <c r="W13">
+        <v>40968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4849</v>
+      </c>
+      <c r="D14">
+        <v>166980</v>
+      </c>
+      <c r="E14">
+        <v>171829</v>
+      </c>
+      <c r="G14">
+        <v>100167</v>
+      </c>
+      <c r="H14">
+        <v>8764</v>
+      </c>
+      <c r="I14">
+        <v>108931</v>
+      </c>
+      <c r="K14">
+        <v>31411</v>
+      </c>
+      <c r="L14">
+        <v>29557</v>
+      </c>
+      <c r="M14">
+        <v>60968</v>
+      </c>
+      <c r="O14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>3767.05</v>
+      </c>
+      <c r="T14">
+        <v>733.09</v>
+      </c>
+      <c r="U14">
+        <v>277999.26</v>
+      </c>
+      <c r="W14">
+        <v>34046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6959</v>
+      </c>
+      <c r="D15">
+        <v>122359</v>
+      </c>
+      <c r="E15">
+        <v>129318</v>
+      </c>
+      <c r="G15">
+        <v>116533</v>
+      </c>
+      <c r="H15">
+        <v>6831</v>
+      </c>
+      <c r="I15">
+        <v>123364</v>
+      </c>
+      <c r="K15">
+        <v>30038</v>
+      </c>
+      <c r="L15">
+        <v>29801</v>
+      </c>
+      <c r="M15">
+        <v>59839</v>
+      </c>
+      <c r="O15">
+        <v>0.21</v>
+      </c>
+      <c r="P15">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15">
+        <v>3323.13</v>
+      </c>
+      <c r="T15">
+        <v>1004.05</v>
+      </c>
+      <c r="U15">
+        <v>29710.880000000001</v>
+      </c>
+      <c r="W15">
+        <v>29182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>10200</v>
+      </c>
+      <c r="D16">
+        <v>87251</v>
+      </c>
+      <c r="E16">
+        <v>97451</v>
+      </c>
+      <c r="G16">
+        <v>154475</v>
+      </c>
+      <c r="H16">
+        <v>5542</v>
+      </c>
+      <c r="I16">
+        <v>160017</v>
+      </c>
+      <c r="K16">
+        <v>31098</v>
+      </c>
+      <c r="L16">
+        <v>29307</v>
+      </c>
+      <c r="M16">
+        <v>60405</v>
+      </c>
+      <c r="O16">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16">
+        <v>3300.66</v>
+      </c>
+      <c r="T16">
+        <v>925.76</v>
+      </c>
+      <c r="U16">
+        <v>47883.26</v>
+      </c>
+      <c r="W16">
+        <v>27428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3966</v>
+      </c>
+      <c r="D17">
+        <v>186558</v>
+      </c>
+      <c r="E17">
+        <v>190524</v>
+      </c>
+      <c r="G17">
+        <v>121597</v>
+      </c>
+      <c r="H17">
+        <v>7059</v>
+      </c>
+      <c r="I17">
+        <v>128656</v>
+      </c>
+      <c r="K17">
+        <v>30169</v>
+      </c>
+      <c r="L17">
+        <v>30695</v>
+      </c>
+      <c r="M17">
+        <v>60864</v>
+      </c>
+      <c r="O17">
+        <v>0.222</v>
+      </c>
+      <c r="P17">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17">
+        <v>4731.76</v>
+      </c>
+      <c r="T17">
+        <v>793.79</v>
+      </c>
+      <c r="U17">
+        <v>102543.49</v>
+      </c>
+      <c r="W17">
+        <v>46274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7425</v>
+      </c>
+      <c r="D18">
+        <v>116565</v>
+      </c>
+      <c r="E18">
+        <v>123990</v>
+      </c>
+      <c r="G18">
+        <v>157151</v>
+      </c>
+      <c r="H18">
+        <v>5245</v>
+      </c>
+      <c r="I18">
+        <v>162396</v>
+      </c>
+      <c r="K18">
+        <v>27005</v>
+      </c>
+      <c r="L18">
+        <v>31736</v>
+      </c>
+      <c r="M18">
+        <v>58741</v>
+      </c>
+      <c r="O18">
+        <v>0.13</v>
+      </c>
+      <c r="P18">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="R18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18">
+        <v>3932.43</v>
+      </c>
+      <c r="T18">
+        <v>702.68</v>
+      </c>
+      <c r="U18">
+        <v>32129.63</v>
+      </c>
+      <c r="W18">
+        <v>37220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5119</v>
+      </c>
+      <c r="D19">
+        <v>155989</v>
+      </c>
+      <c r="E19">
+        <v>161108</v>
+      </c>
+      <c r="G19">
+        <v>98256</v>
+      </c>
+      <c r="H19">
+        <v>9245</v>
+      </c>
+      <c r="I19">
+        <v>107501</v>
+      </c>
+      <c r="K19">
+        <v>30696</v>
+      </c>
+      <c r="L19">
+        <v>30435</v>
+      </c>
+      <c r="M19">
+        <v>61131</v>
+      </c>
+      <c r="O19">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R19" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19">
+        <v>3926.77</v>
+      </c>
+      <c r="T19">
+        <v>986.68</v>
+      </c>
+      <c r="U19">
+        <v>23525.27</v>
+      </c>
+      <c r="W19">
+        <v>31348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>7642</v>
+      </c>
+      <c r="D20">
+        <v>112500</v>
+      </c>
+      <c r="E20">
+        <v>120142</v>
+      </c>
+      <c r="G20">
+        <v>151338</v>
+      </c>
+      <c r="H20">
+        <v>5487</v>
+      </c>
+      <c r="I20">
+        <v>156825</v>
+      </c>
+      <c r="K20">
+        <v>29718</v>
+      </c>
+      <c r="L20">
+        <v>32866</v>
+      </c>
+      <c r="M20">
+        <v>62584</v>
+      </c>
+      <c r="O20">
+        <v>0.153</v>
+      </c>
+      <c r="P20">
+        <v>0.255</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20">
+        <v>3947.26</v>
+      </c>
+      <c r="T20">
+        <v>819.98</v>
+      </c>
+      <c r="U20">
+        <v>79350.61</v>
+      </c>
+      <c r="W20">
+        <v>34514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6620</v>
+      </c>
+      <c r="D21">
+        <v>131711</v>
+      </c>
+      <c r="E21">
+        <v>138331</v>
+      </c>
+      <c r="G21">
+        <v>176207</v>
+      </c>
+      <c r="H21">
+        <v>4961</v>
+      </c>
+      <c r="I21">
+        <v>181168</v>
+      </c>
+      <c r="K21">
+        <v>26184</v>
+      </c>
+      <c r="L21">
+        <v>35591</v>
+      </c>
+      <c r="M21">
+        <v>61775</v>
+      </c>
+      <c r="O21">
+        <v>0.115</v>
+      </c>
+      <c r="P21">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="R21" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21">
+        <v>5106.3999999999996</v>
+      </c>
+      <c r="T21">
+        <v>819.71</v>
+      </c>
+      <c r="U21">
+        <v>149002.35999999999</v>
+      </c>
+      <c r="W21">
+        <v>46948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5717</v>
+      </c>
+      <c r="D22">
+        <v>149854</v>
+      </c>
+      <c r="E22">
+        <v>155571</v>
+      </c>
+      <c r="G22">
+        <v>136241</v>
+      </c>
+      <c r="H22">
+        <v>6502</v>
+      </c>
+      <c r="I22">
+        <v>142743</v>
+      </c>
+      <c r="K22">
+        <v>30867</v>
+      </c>
+      <c r="L22">
+        <v>29879</v>
+      </c>
+      <c r="M22">
+        <v>60746</v>
+      </c>
+      <c r="O22">
+        <v>0.192</v>
+      </c>
+      <c r="P22">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="R22" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22">
+        <v>4227.6099999999997</v>
+      </c>
+      <c r="T22">
+        <v>1272.06</v>
+      </c>
+      <c r="U22">
+        <v>96884.28</v>
+      </c>
+      <c r="W22">
+        <v>41132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4915</v>
+      </c>
+      <c r="D23">
+        <v>169537</v>
+      </c>
+      <c r="E23">
+        <v>174452</v>
+      </c>
+      <c r="G23">
+        <v>140111</v>
+      </c>
+      <c r="H23">
+        <v>5721</v>
+      </c>
+      <c r="I23">
+        <v>145832</v>
+      </c>
+      <c r="K23">
+        <v>29497</v>
+      </c>
+      <c r="L23">
+        <v>31604</v>
+      </c>
+      <c r="M23">
+        <v>61101</v>
+      </c>
+      <c r="O23">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.158</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23">
+        <v>4928.0200000000004</v>
+      </c>
+      <c r="T23">
+        <v>1361.03</v>
+      </c>
+      <c r="U23">
+        <v>86922.53</v>
+      </c>
+      <c r="W23">
+        <v>48248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5019</v>
+      </c>
+      <c r="D24">
+        <v>165955</v>
+      </c>
+      <c r="E24">
+        <v>170974</v>
+      </c>
+      <c r="G24">
+        <v>114585</v>
+      </c>
+      <c r="H24">
+        <v>7744</v>
+      </c>
+      <c r="I24">
+        <v>122329</v>
+      </c>
+      <c r="K24">
+        <v>29294</v>
+      </c>
+      <c r="L24">
+        <v>30727</v>
+      </c>
+      <c r="M24">
+        <v>60021</v>
+      </c>
+      <c r="O24">
+        <v>0.221</v>
+      </c>
+      <c r="P24">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24">
+        <v>4168.1000000000004</v>
+      </c>
+      <c r="T24">
+        <v>1216.1600000000001</v>
+      </c>
+      <c r="U24">
+        <v>109554.89</v>
+      </c>
+      <c r="W24">
+        <v>38886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4877</v>
+      </c>
+      <c r="D25">
+        <v>173895</v>
+      </c>
+      <c r="E25">
+        <v>178772</v>
+      </c>
+      <c r="G25">
+        <v>107760</v>
+      </c>
+      <c r="H25">
+        <v>7945</v>
+      </c>
+      <c r="I25">
+        <v>115705</v>
+      </c>
+      <c r="K25">
+        <v>30270</v>
+      </c>
+      <c r="L25">
+        <v>29683</v>
+      </c>
+      <c r="M25">
+        <v>59953</v>
+      </c>
+      <c r="O25">
+        <v>0.246</v>
+      </c>
+      <c r="P25">
+        <v>0.13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25">
+        <v>4035.11</v>
+      </c>
+      <c r="T25">
+        <v>1166.55</v>
+      </c>
+      <c r="U25">
+        <v>63167.6</v>
+      </c>
+      <c r="W25">
+        <v>37910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>AVERAGE(B6:B25)</f>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:W27" si="0">AVERAGE(C6:C25)</f>
+        <v>6042.65</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>144875.25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>150917.9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>131926.1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>6689.3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>138615.4</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>29429.5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>31270.05</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>60699.55</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>0.19360000000000002</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>0.18575</v>
+      </c>
+      <c r="R27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>4157.8495000000003</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>963.51499999999976</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>94483.863499999992</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>38090.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>396</v>
+      </c>
+      <c r="D31">
+        <v>1555</v>
+      </c>
+      <c r="E31">
+        <v>1951</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>2039</v>
+      </c>
+      <c r="H31">
+        <v>325</v>
+      </c>
+      <c r="I31">
+        <v>2364</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>720</v>
+      </c>
+      <c r="L31">
+        <v>836</v>
+      </c>
+      <c r="M31">
+        <v>1556</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="P31">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R31">
+        <v>14.16</v>
+      </c>
+      <c r="S31">
+        <v>27.36</v>
+      </c>
+      <c r="T31">
+        <v>28.47</v>
+      </c>
+      <c r="U31">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>476</v>
+      </c>
+      <c r="D32">
+        <v>1654</v>
+      </c>
+      <c r="E32">
+        <v>2130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>1666</v>
+      </c>
+      <c r="H32">
+        <v>470</v>
+      </c>
+      <c r="I32">
+        <v>2136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>800</v>
+      </c>
+      <c r="L32">
+        <v>951</v>
+      </c>
+      <c r="M32">
+        <v>1751</v>
+      </c>
+      <c r="N32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P32">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>73</v>
+      </c>
+      <c r="R32">
+        <v>2.69</v>
+      </c>
+      <c r="S32">
+        <v>15.01</v>
+      </c>
+      <c r="T32">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="U32">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>423</v>
+      </c>
+      <c r="D33">
+        <v>1636</v>
+      </c>
+      <c r="E33">
+        <v>2059</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33">
+        <v>2722</v>
+      </c>
+      <c r="H33">
+        <v>225</v>
+      </c>
+      <c r="I33">
+        <v>2947</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33">
+        <v>824</v>
+      </c>
+      <c r="L33">
+        <v>911</v>
+      </c>
+      <c r="M33">
+        <v>1735</v>
+      </c>
+      <c r="N33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>73</v>
+      </c>
+      <c r="R33">
+        <v>4.33</v>
+      </c>
+      <c r="S33">
+        <v>14.78</v>
+      </c>
+      <c r="T33">
+        <v>6.78</v>
+      </c>
+      <c r="U33">
+        <v>49.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>410</v>
+      </c>
+      <c r="D34">
+        <v>1737</v>
+      </c>
+      <c r="E34">
+        <v>2147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34">
+        <v>1684</v>
+      </c>
+      <c r="H34">
+        <v>373</v>
+      </c>
+      <c r="I34">
+        <v>2057</v>
+      </c>
+      <c r="J34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34">
+        <v>734</v>
+      </c>
+      <c r="L34">
+        <v>905</v>
+      </c>
+      <c r="M34">
+        <v>1639</v>
+      </c>
+      <c r="N34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34">
+        <v>0.254</v>
+      </c>
+      <c r="P34">
+        <v>0.39</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34">
+        <v>2.4</v>
+      </c>
+      <c r="S34">
+        <v>8.25</v>
+      </c>
+      <c r="T34">
+        <v>7.82</v>
+      </c>
+      <c r="U34">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>AVERAGE(C31:C34)</f>
+        <v>426.25</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:U36" si="1">AVERAGE(D31:D34)</f>
+        <v>1645.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2071.75</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2027.75</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>348.25</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>2376</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>769.5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>900.75</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>1670.25</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.22425</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0.42425000000000002</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>15.855</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>52.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>371</v>
+      </c>
+      <c r="D41">
+        <v>2000</v>
+      </c>
+      <c r="E41">
+        <v>2371</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>1734</v>
+      </c>
+      <c r="H41">
+        <v>423</v>
+      </c>
+      <c r="I41">
+        <v>2157</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41">
+        <v>1140</v>
+      </c>
+      <c r="L41">
+        <v>622</v>
+      </c>
+      <c r="M41">
+        <v>1762</v>
+      </c>
+      <c r="N41" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P41">
+        <v>0.126</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>73</v>
+      </c>
+      <c r="R41">
+        <v>14.68</v>
+      </c>
+      <c r="S41">
+        <v>25.44</v>
+      </c>
+      <c r="T41">
+        <v>25.49</v>
+      </c>
+      <c r="U41">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <v>209</v>
+      </c>
+      <c r="D42">
+        <v>2702</v>
+      </c>
+      <c r="E42">
+        <v>2911</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42">
+        <v>1878</v>
+      </c>
+      <c r="H42">
+        <v>309</v>
+      </c>
+      <c r="I42">
+        <v>2187</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42">
+        <v>896</v>
+      </c>
+      <c r="L42">
+        <v>781</v>
+      </c>
+      <c r="M42">
+        <v>1677</v>
+      </c>
+      <c r="N42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="P42">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>73</v>
+      </c>
+      <c r="R42">
+        <v>5.9</v>
+      </c>
+      <c r="S42">
+        <v>12.06</v>
+      </c>
+      <c r="T42">
+        <v>21.9</v>
+      </c>
+      <c r="U42">
+        <v>29.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>264</v>
+      </c>
+      <c r="D43">
+        <v>2412</v>
+      </c>
+      <c r="E43">
+        <v>2676</v>
+      </c>
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43">
+        <v>1782</v>
+      </c>
+      <c r="H43">
+        <v>417</v>
+      </c>
+      <c r="I43">
+        <v>2199</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>687</v>
+      </c>
+      <c r="L43">
+        <v>962</v>
+      </c>
+      <c r="M43">
+        <v>1649</v>
+      </c>
+      <c r="N43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O43">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P43">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>73</v>
+      </c>
+      <c r="R43">
+        <v>2.15</v>
+      </c>
+      <c r="S43">
+        <v>10.17</v>
+      </c>
+      <c r="T43">
+        <v>11.34</v>
+      </c>
+      <c r="U43">
+        <v>46.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>349</v>
+      </c>
+      <c r="D44">
+        <v>2282</v>
+      </c>
+      <c r="E44">
+        <v>2631</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44">
+        <v>2319</v>
+      </c>
+      <c r="H44">
+        <v>232</v>
+      </c>
+      <c r="I44">
+        <v>2551</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44">
+        <v>832</v>
+      </c>
+      <c r="L44">
+        <v>847</v>
+      </c>
+      <c r="M44">
+        <v>1679</v>
+      </c>
+      <c r="N44" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44">
+        <v>0.245</v>
+      </c>
+      <c r="P44">
+        <v>0.3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>73</v>
+      </c>
+      <c r="R44">
+        <v>2.4</v>
+      </c>
+      <c r="S44">
+        <v>16.96</v>
+      </c>
+      <c r="T44">
+        <v>6.49</v>
+      </c>
+      <c r="U44">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>245</v>
+      </c>
+      <c r="D45">
+        <v>2271</v>
+      </c>
+      <c r="E45">
+        <v>2516</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>1968</v>
+      </c>
+      <c r="H45">
+        <v>395</v>
+      </c>
+      <c r="I45">
+        <v>2363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>704</v>
+      </c>
+      <c r="L45">
+        <v>1008</v>
+      </c>
+      <c r="M45">
+        <v>1712</v>
+      </c>
+      <c r="N45" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P45">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>73</v>
+      </c>
+      <c r="R45">
+        <v>4.16</v>
+      </c>
+      <c r="S45">
+        <v>10.38</v>
+      </c>
+      <c r="T45">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="U45">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>855</v>
+      </c>
+      <c r="D46">
+        <v>864</v>
+      </c>
+      <c r="E46">
+        <v>1719</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46">
+        <v>2256</v>
+      </c>
+      <c r="H46">
+        <v>320</v>
+      </c>
+      <c r="I46">
+        <v>2576</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>855</v>
+      </c>
+      <c r="L46">
+        <v>864</v>
+      </c>
+      <c r="M46">
+        <v>1719</v>
+      </c>
+      <c r="N46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>73</v>
+      </c>
+      <c r="R46">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S46">
+        <v>6.39</v>
+      </c>
+      <c r="T46">
+        <v>3.38</v>
+      </c>
+      <c r="U46">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>517</v>
+      </c>
+      <c r="D47">
+        <v>1520</v>
+      </c>
+      <c r="E47">
+        <v>2037</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>1790</v>
+      </c>
+      <c r="H47">
+        <v>388</v>
+      </c>
+      <c r="I47">
+        <v>2178</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47">
+        <v>810</v>
+      </c>
+      <c r="L47">
+        <v>935</v>
+      </c>
+      <c r="M47">
+        <v>1745</v>
+      </c>
+      <c r="N47" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47">
+        <v>0.23</v>
+      </c>
+      <c r="P47">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>73</v>
+      </c>
+      <c r="R47">
+        <v>2.42</v>
+      </c>
+      <c r="S47">
+        <v>7.03</v>
+      </c>
+      <c r="T47">
+        <v>3.97</v>
+      </c>
+      <c r="U47">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>234</v>
+      </c>
+      <c r="D48">
+        <v>2850</v>
+      </c>
+      <c r="E48">
+        <v>3084</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48">
+        <v>2046</v>
+      </c>
+      <c r="H48">
+        <v>374</v>
+      </c>
+      <c r="I48">
+        <v>2420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>923</v>
+      </c>
+      <c r="L48">
+        <v>802</v>
+      </c>
+      <c r="M48">
+        <v>1725</v>
+      </c>
+      <c r="N48" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48">
+        <v>0.38</v>
+      </c>
+      <c r="P48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48">
+        <v>2.48</v>
+      </c>
+      <c r="S48">
+        <v>11.47</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>415</v>
+      </c>
+      <c r="D49">
+        <v>1823</v>
+      </c>
+      <c r="E49">
+        <v>2238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49">
+        <v>1833</v>
+      </c>
+      <c r="H49">
+        <v>490</v>
+      </c>
+      <c r="I49">
+        <v>2323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <v>992</v>
+      </c>
+      <c r="L49">
+        <v>839</v>
+      </c>
+      <c r="M49">
+        <v>1831</v>
+      </c>
+      <c r="N49" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P49">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>73</v>
+      </c>
+      <c r="R49">
+        <v>2.13</v>
+      </c>
+      <c r="S49">
+        <v>6.15</v>
+      </c>
+      <c r="T49">
+        <v>2.62</v>
+      </c>
+      <c r="U49">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>351</v>
+      </c>
+      <c r="D50">
+        <v>2246</v>
+      </c>
+      <c r="E50">
+        <v>2597</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50">
+        <v>2055</v>
+      </c>
+      <c r="H50">
+        <v>376</v>
+      </c>
+      <c r="I50">
+        <v>2431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50">
+        <v>886</v>
+      </c>
+      <c r="L50">
+        <v>913</v>
+      </c>
+      <c r="M50">
+        <v>1799</v>
+      </c>
+      <c r="N50" t="s">
+        <v>73</v>
+      </c>
+      <c r="O50">
+        <v>0.313</v>
+      </c>
+      <c r="P50">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>73</v>
+      </c>
+      <c r="R50">
+        <v>2.13</v>
+      </c>
+      <c r="S50">
+        <v>7.63</v>
+      </c>
+      <c r="T50">
+        <v>2.46</v>
+      </c>
+      <c r="U50">
+        <v>65.849999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>333</v>
+      </c>
+      <c r="D51">
+        <v>2292</v>
+      </c>
+      <c r="E51">
+        <v>2625</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51">
+        <v>1373</v>
+      </c>
+      <c r="H51">
+        <v>618</v>
+      </c>
+      <c r="I51">
+        <v>1991</v>
+      </c>
+      <c r="J51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51">
+        <v>841</v>
+      </c>
+      <c r="L51">
+        <v>996</v>
+      </c>
+      <c r="M51">
+        <v>1837</v>
+      </c>
+      <c r="N51" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P51">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>73</v>
+      </c>
+      <c r="R51">
+        <v>1.59</v>
+      </c>
+      <c r="S51">
+        <v>5.3</v>
+      </c>
+      <c r="T51">
+        <v>2.12</v>
+      </c>
+      <c r="U51">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>276</v>
+      </c>
+      <c r="D52">
+        <v>2129</v>
+      </c>
+      <c r="E52">
+        <v>2405</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52">
+        <v>1515</v>
+      </c>
+      <c r="H52">
+        <v>403</v>
+      </c>
+      <c r="I52">
+        <v>1918</v>
+      </c>
+      <c r="J52" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52">
+        <v>808</v>
+      </c>
+      <c r="L52">
+        <v>785</v>
+      </c>
+      <c r="M52">
+        <v>1593</v>
+      </c>
+      <c r="N52" t="s">
+        <v>73</v>
+      </c>
+      <c r="O52">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P52">
+        <v>0.221</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>73</v>
+      </c>
+      <c r="R52">
+        <v>1.56</v>
+      </c>
+      <c r="S52">
+        <v>6.36</v>
+      </c>
+      <c r="T52">
+        <v>2.87</v>
+      </c>
+      <c r="U52">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>356</v>
+      </c>
+      <c r="D53">
+        <v>2250</v>
+      </c>
+      <c r="E53">
+        <v>2606</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53">
+        <v>1804</v>
+      </c>
+      <c r="H53">
+        <v>416</v>
+      </c>
+      <c r="I53">
+        <v>2220</v>
+      </c>
+      <c r="J53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53">
+        <v>737</v>
+      </c>
+      <c r="L53">
+        <v>979</v>
+      </c>
+      <c r="M53">
+        <v>1716</v>
+      </c>
+      <c r="N53" t="s">
+        <v>73</v>
+      </c>
+      <c r="O53">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="P53">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>73</v>
+      </c>
+      <c r="R53">
+        <v>1.47</v>
+      </c>
+      <c r="S53">
+        <v>6.63</v>
+      </c>
+      <c r="T53">
+        <v>3.18</v>
+      </c>
+      <c r="U53">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>643</v>
+      </c>
+      <c r="D54">
+        <v>1241</v>
+      </c>
+      <c r="E54">
+        <v>1884</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54">
+        <v>1204</v>
+      </c>
+      <c r="H54">
+        <v>610</v>
+      </c>
+      <c r="I54">
+        <v>1814</v>
+      </c>
+      <c r="J54" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54">
+        <v>1022</v>
+      </c>
+      <c r="L54">
+        <v>706</v>
+      </c>
+      <c r="M54">
+        <v>1728</v>
+      </c>
+      <c r="N54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="P54">
+        <v>0.152</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>73</v>
+      </c>
+      <c r="R54">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>2.59</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>419</v>
+      </c>
+      <c r="D55">
+        <v>1932</v>
+      </c>
+      <c r="E55">
+        <v>2351</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55">
+        <v>1306</v>
+      </c>
+      <c r="H55">
+        <v>589</v>
+      </c>
+      <c r="I55">
+        <v>1895</v>
+      </c>
+      <c r="J55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55">
+        <v>916</v>
+      </c>
+      <c r="L55">
+        <v>798</v>
+      </c>
+      <c r="M55">
+        <v>1714</v>
+      </c>
+      <c r="N55" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P55">
+        <v>0.155</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>73</v>
+      </c>
+      <c r="R55">
+        <v>1.73</v>
+      </c>
+      <c r="S55">
+        <v>5.09</v>
+      </c>
+      <c r="T55">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="U55">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>318</v>
+      </c>
+      <c r="D56">
+        <v>2170</v>
+      </c>
+      <c r="E56">
+        <v>2488</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56">
+        <v>2128</v>
+      </c>
+      <c r="H56">
+        <v>279</v>
+      </c>
+      <c r="I56">
+        <v>2407</v>
+      </c>
+      <c r="J56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56">
+        <v>841</v>
+      </c>
+      <c r="L56">
+        <v>867</v>
+      </c>
+      <c r="M56">
+        <v>1708</v>
+      </c>
+      <c r="N56" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="P56">
+        <v>0.31</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>73</v>
+      </c>
+      <c r="R56">
+        <v>1.55</v>
+      </c>
+      <c r="S56">
+        <v>6.69</v>
+      </c>
+      <c r="T56">
+        <v>2.37</v>
+      </c>
+      <c r="U56">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57">
+        <v>381</v>
+      </c>
+      <c r="D57">
+        <v>1991</v>
+      </c>
+      <c r="E57">
+        <v>2372</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57">
+        <v>2262</v>
+      </c>
+      <c r="H57">
+        <v>338</v>
+      </c>
+      <c r="I57">
+        <v>2600</v>
+      </c>
+      <c r="J57" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57">
+        <v>826</v>
+      </c>
+      <c r="L57">
+        <v>1051</v>
+      </c>
+      <c r="M57">
+        <v>1877</v>
+      </c>
+      <c r="N57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="P57">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>73</v>
+      </c>
+      <c r="R57">
+        <v>1.57</v>
+      </c>
+      <c r="S57">
+        <v>5.95</v>
+      </c>
+      <c r="T57">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U57">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>407</v>
+      </c>
+      <c r="D58">
+        <v>1789</v>
+      </c>
+      <c r="E58">
+        <v>2196</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58">
+        <v>2141</v>
+      </c>
+      <c r="H58">
+        <v>304</v>
+      </c>
+      <c r="I58">
+        <v>2445</v>
+      </c>
+      <c r="J58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>788</v>
+      </c>
+      <c r="L58">
+        <v>842</v>
+      </c>
+      <c r="M58">
+        <v>1630</v>
+      </c>
+      <c r="N58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58">
+        <v>0.219</v>
+      </c>
+      <c r="P58">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>73</v>
+      </c>
+      <c r="R58">
+        <v>1.63</v>
+      </c>
+      <c r="S58">
+        <v>5.56</v>
+      </c>
+      <c r="T58">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U58">
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>579</v>
+      </c>
+      <c r="D59">
+        <v>1300</v>
+      </c>
+      <c r="E59">
+        <v>1879</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59">
+        <v>2051</v>
+      </c>
+      <c r="H59">
+        <v>394</v>
+      </c>
+      <c r="I59">
+        <v>2445</v>
+      </c>
+      <c r="J59" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59">
+        <v>889</v>
+      </c>
+      <c r="L59">
+        <v>852</v>
+      </c>
+      <c r="M59">
+        <v>1741</v>
+      </c>
+      <c r="N59" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59">
+        <v>0.21</v>
+      </c>
+      <c r="P59">
+        <v>0.505</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59">
+        <v>3.46</v>
+      </c>
+      <c r="S59">
+        <v>3.76</v>
+      </c>
+      <c r="T59">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U59">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>520</v>
+      </c>
+      <c r="D60">
+        <v>1365</v>
+      </c>
+      <c r="E60">
+        <v>1885</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60">
+        <v>1694</v>
+      </c>
+      <c r="H60">
+        <v>377</v>
+      </c>
+      <c r="I60">
+        <v>2071</v>
+      </c>
+      <c r="J60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60">
+        <v>739</v>
+      </c>
+      <c r="L60">
+        <v>874</v>
+      </c>
+      <c r="M60">
+        <v>1613</v>
+      </c>
+      <c r="N60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O60">
+        <v>0.186</v>
+      </c>
+      <c r="P60">
+        <v>0.503</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>73</v>
+      </c>
+      <c r="R60">
+        <v>1.68</v>
+      </c>
+      <c r="S60">
+        <v>4.29</v>
+      </c>
+      <c r="T60">
+        <v>2.35</v>
+      </c>
+      <c r="U60">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f>AVERAGE(C41:C60)</f>
+        <v>402.1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:U62" si="2">AVERAGE(D41:D60)</f>
+        <v>1971.45</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>2373.5500000000002</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>1856.95</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>402.6</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>2259.5500000000002</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>856.6</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>866.15</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>1722.75</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>0.33234999999999998</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>0.32975000000000004</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>3.0735000000000001</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>8.4654999999999987</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="2"/>
+        <v>5.6675000000000013</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>31.889499999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2000</v>
+      </c>
+      <c r="C69">
+        <v>18548</v>
+      </c>
+      <c r="D69">
+        <v>376343</v>
+      </c>
+      <c r="E69">
+        <v>394891</v>
+      </c>
+      <c r="G69">
+        <v>651628</v>
+      </c>
+      <c r="H69">
+        <v>10145</v>
+      </c>
+      <c r="I69">
+        <v>661773</v>
+      </c>
+      <c r="K69">
+        <v>83220</v>
+      </c>
+      <c r="L69">
+        <v>90279</v>
+      </c>
+      <c r="M69">
+        <v>173499</v>
+      </c>
+      <c r="O69">
+        <f>(K69-C69)/(G69-C69)</f>
+        <v>0.10215454602893789</v>
+      </c>
+      <c r="P69">
+        <f>(L69-H69)/(D69-H69)</f>
+        <v>0.21882697338598245</v>
+      </c>
+      <c r="R69">
+        <v>1222.75</v>
+      </c>
+      <c r="S69">
+        <v>26430.799999999999</v>
+      </c>
+      <c r="T69">
+        <v>4394.99</v>
+      </c>
+      <c r="U69">
+        <v>750123.18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2000</v>
+      </c>
+      <c r="C70">
+        <v>14228</v>
+      </c>
+      <c r="D70">
+        <v>491903</v>
+      </c>
+      <c r="E70">
+        <v>506131</v>
+      </c>
+      <c r="G70">
+        <v>600204</v>
+      </c>
+      <c r="H70">
+        <v>11145</v>
+      </c>
+      <c r="I70">
+        <v>611349</v>
+      </c>
+      <c r="K70">
+        <v>85245</v>
+      </c>
+      <c r="L70">
+        <v>90846</v>
+      </c>
+      <c r="M70">
+        <v>176091</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:P72" si="3">(K70-C70)/(G70-C70)</f>
+        <v>0.12119438338771554</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ref="P70:P72" si="4">(L70-H70)/(D70-H70)</f>
+        <v>0.1657819526664143</v>
+      </c>
+      <c r="R70">
+        <v>1184.71</v>
+      </c>
+      <c r="S70">
+        <v>29568.93</v>
+      </c>
+      <c r="T70">
+        <v>4905.04</v>
+      </c>
+      <c r="U70">
+        <v>544471.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2000</v>
+      </c>
+      <c r="C71">
+        <v>18655</v>
+      </c>
+      <c r="D71">
+        <v>398368</v>
+      </c>
+      <c r="E71">
+        <v>417023</v>
+      </c>
+      <c r="G71">
+        <v>475312</v>
+      </c>
+      <c r="H71">
+        <v>14704</v>
+      </c>
+      <c r="I71">
+        <v>490016</v>
+      </c>
+      <c r="K71">
+        <v>89075</v>
+      </c>
+      <c r="L71">
+        <v>89780</v>
+      </c>
+      <c r="M71">
+        <v>178855</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>0.15420764381143834</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="4"/>
+        <v>0.19568163810000416</v>
+      </c>
+      <c r="R71">
+        <v>1435.82</v>
+      </c>
+      <c r="S71">
+        <v>21293.05</v>
+      </c>
+      <c r="T71">
+        <v>4491.4799999999996</v>
+      </c>
+      <c r="U71">
+        <v>1292238.1599999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2000</v>
+      </c>
+      <c r="C72">
+        <v>12114</v>
+      </c>
+      <c r="D72">
+        <v>568871</v>
+      </c>
+      <c r="E72">
+        <v>580985</v>
+      </c>
+      <c r="G72">
+        <v>536160</v>
+      </c>
+      <c r="H72">
+        <v>12730</v>
+      </c>
+      <c r="I72">
+        <v>548890</v>
+      </c>
+      <c r="K72">
+        <v>90563</v>
+      </c>
+      <c r="L72">
+        <v>83944</v>
+      </c>
+      <c r="M72">
+        <v>174507</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>0.14969869057296498</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="4"/>
+        <v>0.12805026063534247</v>
+      </c>
+      <c r="R72">
+        <v>937.8</v>
+      </c>
+      <c r="S72">
+        <v>30382</v>
+      </c>
+      <c r="T72">
+        <v>4371.5600000000004</v>
+      </c>
+      <c r="U72">
+        <v>490352.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>AVERAGE(C69:C72)</f>
+        <v>15886.25</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:U74" si="5">AVERAGE(D69:D72)</f>
+        <v>458871.25</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>474757.5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>565826</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>12181</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>578007</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>87025.75</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="5"/>
+        <v>88712.25</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>175738</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
+        <v>0.1318138159502642</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="5"/>
+        <v>0.17708520619693585</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>1195.27</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>26918.695</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="5"/>
+        <v>4540.7674999999999</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>769296.33000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:W19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>402.1</v>
+      </c>
+      <c r="I5">
+        <v>1971.45</v>
+      </c>
+      <c r="J5">
+        <v>2373.5500000000002</v>
+      </c>
+      <c r="L5">
+        <v>1856.95</v>
+      </c>
+      <c r="M5">
+        <v>402.6</v>
+      </c>
+      <c r="N5">
+        <v>2259.5500000000002</v>
+      </c>
+      <c r="P5">
+        <v>856.6</v>
+      </c>
+      <c r="Q5">
+        <v>866.15</v>
+      </c>
+      <c r="R5">
+        <v>1722.75</v>
+      </c>
+      <c r="T5">
+        <v>0.33234999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.32975000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>6042.65</v>
+      </c>
+      <c r="I6">
+        <v>144875.25</v>
+      </c>
+      <c r="J6">
+        <v>150917.9</v>
+      </c>
+      <c r="L6">
+        <v>131926.1</v>
+      </c>
+      <c r="M6">
+        <v>6689.3</v>
+      </c>
+      <c r="N6">
+        <v>138615.4</v>
+      </c>
+      <c r="P6">
+        <v>29429.5</v>
+      </c>
+      <c r="Q6">
+        <v>31270.05</v>
+      </c>
+      <c r="R6">
+        <v>60699.55</v>
+      </c>
+      <c r="T6">
+        <v>0.19360000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.18575</v>
+      </c>
+    </row>
+    <row r="7" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>15886.25</v>
+      </c>
+      <c r="I7">
+        <v>458871.25</v>
+      </c>
+      <c r="J7">
+        <v>474757.5</v>
+      </c>
+      <c r="L7">
+        <v>565826</v>
+      </c>
+      <c r="M7">
+        <v>12181</v>
+      </c>
+      <c r="N7">
+        <v>578007</v>
+      </c>
+      <c r="P7">
+        <v>87025.75</v>
+      </c>
+      <c r="Q7">
+        <v>88712.25</v>
+      </c>
+      <c r="R7">
+        <v>175738</v>
+      </c>
+      <c r="T7">
+        <v>0.1318138159502642</v>
+      </c>
+      <c r="U7">
+        <v>0.17708520619693585</v>
+      </c>
+    </row>
+    <row r="15" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <f>H5/J5</f>
+        <v>0.16940869162225358</v>
+      </c>
+      <c r="I17">
+        <f>I5/J5</f>
+        <v>0.83059130837774642</v>
+      </c>
+      <c r="J17">
+        <f>P5/R5</f>
+        <v>0.4972282687563489</v>
+      </c>
+      <c r="K17">
+        <f>Q5/R5</f>
+        <v>0.50277173124365115</v>
+      </c>
+      <c r="L17">
+        <f>L5/N5</f>
+        <v>0.82182292934433843</v>
+      </c>
+      <c r="M17">
+        <f>M5/N5</f>
+        <v>0.17817707065566152</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <f>L5/L5</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>P5/L5</f>
+        <v>0.46129405745981311</v>
+      </c>
+      <c r="T17">
+        <f>H5/L5</f>
+        <v>0.21653787124047497</v>
+      </c>
+      <c r="U17">
+        <f>M5/I5</f>
+        <v>0.20421517157422203</v>
+      </c>
+      <c r="V17">
+        <f>Q5/I5</f>
+        <v>0.43934667376803871</v>
+      </c>
+      <c r="W17">
+        <f>I5/I5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="0">H6/J6</f>
+        <v>4.0039319391536723E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="1">I6/J6</f>
+        <v>0.95996068060846329</v>
+      </c>
+      <c r="J18">
+        <f>P6/R6</f>
+        <v>0.48483884971140639</v>
+      </c>
+      <c r="K18">
+        <f>Q6/R6</f>
+        <v>0.51516115028859355</v>
+      </c>
+      <c r="L18">
+        <f>L6/N6</f>
+        <v>0.95174201423507065</v>
+      </c>
+      <c r="M18">
+        <f>M6/N6</f>
+        <v>4.8257985764929442E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R19" si="2">L6/L6</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S19" si="3">P6/L6</f>
+        <v>0.22307564613825467</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T19" si="4">H6/L6</f>
+        <v>4.5803294420133693E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U19" si="5">M6/I6</f>
+        <v>4.617282800202243E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V19" si="6">Q6/I6</f>
+        <v>0.21584121511438289</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W19" si="7">I6/I6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:23" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.3461819981780175E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.96653818001821978</v>
+      </c>
+      <c r="J19">
+        <f>P7/R7</f>
+        <v>0.4952016638404898</v>
+      </c>
+      <c r="K19">
+        <f>Q7/R7</f>
+        <v>0.5047983361595102</v>
+      </c>
+      <c r="L19">
+        <f>L7/N7</f>
+        <v>0.97892586075947174</v>
+      </c>
+      <c r="M19">
+        <f>M7/N7</f>
+        <v>2.1074139240528228E-2</v>
+      </c>
+      <c r="Q19">
+        <v>2000</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>0.1538030242512716</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>2.8076210707885463E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>2.6545572423637351E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>0.19332710428034008</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results_analysis.xlsx
+++ b/results/results_analysis.xlsx
@@ -348,7 +348,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Fairness of Matchings</a:t>
+              <a:t>Average Fairness within</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> a </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matching</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -673,11 +681,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448017744"/>
-        <c:axId val="442188456"/>
+        <c:axId val="218572240"/>
+        <c:axId val="218572632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448017744"/>
+        <c:axId val="218572240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442188456"/>
+        <c:crossAx val="218572632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442188456"/>
+        <c:axId val="218572632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -774,7 +782,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Total Cost</a:t>
+                  <a:t> of Total Matching Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -840,7 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448017744"/>
+        <c:crossAx val="218572240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,11 +1294,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="448988360"/>
-        <c:axId val="448988752"/>
+        <c:axId val="218573416"/>
+        <c:axId val="218573808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448988360"/>
+        <c:axId val="218573416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448988752"/>
+        <c:crossAx val="218573808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1341,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448988752"/>
+        <c:axId val="218573808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1383,7 +1391,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percent of Pessimal Cost</a:t>
+                  <a:t>Percent of Pessimal Group Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1449,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448988360"/>
+        <c:crossAx val="218573416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8981,7 +8989,7 @@
         <v>176091</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:P72" si="3">(K70-C70)/(G70-C70)</f>
+        <f t="shared" ref="O70:O72" si="3">(K70-C70)/(G70-C70)</f>
         <v>0.12119438338771554</v>
       </c>
       <c r="P70">
@@ -9176,8 +9184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
